--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-418075.5004077802</v>
+        <v>-419963.0819241817</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>327.5910766316447</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>180.3998162856194</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>140.8202661270083</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>101.3315047991723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>92.39306372366545</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.08828121259629</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>128.5001899129491</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>312.5026489522684</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>180.0657783516313</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>86.11283245545005</v>
+        <v>157.004478340614</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>59.40847129570683</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.5579632528915</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.66072130767898</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>114.0324099863919</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.78052067860744</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>37.71287359686946</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>79.37563130433468</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75.10986570267858</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>46.17195832497232</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>1.04268038841437</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>165.1439071617371</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373725</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1683.321707331112</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="C2" t="n">
-        <v>1314.359190390701</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="D2" t="n">
-        <v>956.0934917839502</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>570.3052391857059</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>563.3597384365024</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y2" t="n">
-        <v>2069.921547395234</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2548.794074555114</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2330.159407527177</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2076.397622165268</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1745.334734821698</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1745.334734821698</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1745.334734821698</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.334734821698</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>684.3735766921516</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1525.74665604171</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1525.74665604171</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
         <v>1210.087414675782</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2284.058289265279</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1952.995401921708</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017522</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>641.1463251605253</v>
+        <v>569.538602044198</v>
       </c>
       <c r="U10" t="n">
-        <v>351.9727148150933</v>
+        <v>569.538602044198</v>
       </c>
       <c r="V10" t="n">
-        <v>351.9727148150933</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W10" t="n">
-        <v>351.9727148150933</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150933</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7466045204288</v>
+        <v>437.6964226305955</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>268.7602397026886</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>268.7602397026886</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>268.7602397026886</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>268.7602397026886</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>268.7602397026886</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799347</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471175</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1391.281964241849</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1391.281964241849</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1391.281964241849</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1102.153325455407</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1102.153325455407</v>
+        <v>955.1031435655734</v>
       </c>
       <c r="W13" t="n">
-        <v>812.7361554184462</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="X13" t="n">
-        <v>584.7466045204288</v>
+        <v>437.6964226305955</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.7466045204288</v>
+        <v>437.6964226305955</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609666</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609666</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W16" t="n">
-        <v>696.585046524006</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X16" t="n">
-        <v>468.5954956259886</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.8029164824586</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,7 +5592,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
@@ -5601,13 +5601,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
         <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.4452354807079</v>
+        <v>545.1765965867976</v>
       </c>
       <c r="C19" t="n">
-        <v>415.509052552801</v>
+        <v>545.1765965867976</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>545.1765965867976</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>397.2635030044045</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293932</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>643.8194987924326</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="X19" t="n">
-        <v>643.8194987924326</v>
+        <v>726.8250614170373</v>
       </c>
       <c r="Y19" t="n">
-        <v>643.8194987924326</v>
+        <v>726.8250614170373</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909233</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.87834655132</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1083.87834655132</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>794.4611765143591</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>794.4611765143591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>573.6685973708289</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845923</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>618.005323167752</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141522</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>1020.446367141522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1020.446367141522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>799.6537879979917</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,13 +6303,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>953.6472828615138</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
         <v>1722.015429253975</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>758.0126656629492</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>589.0764827350423</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>589.0764827350423</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>441.1633891526492</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>294.2734416547388</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609665</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609665</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W28" t="n">
-        <v>986.0022165609665</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X28" t="n">
-        <v>758.0126656629492</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.0126656629492</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,16 +6479,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,16 +6549,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.088176023193</v>
+        <v>564.3668169895377</v>
       </c>
       <c r="C31" t="n">
-        <v>392.912858376657</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="D31" t="n">
-        <v>392.912858376657</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756348</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590953</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1401.816102730973</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.892479806457</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>969.2361750508675</v>
+        <v>902.6804289818934</v>
       </c>
       <c r="X31" t="n">
-        <v>797.007489434221</v>
+        <v>730.4517433652469</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.9757755720618</v>
+        <v>565.4200295030876</v>
       </c>
     </row>
     <row r="32">
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,52 +6935,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7783,19 +7783,19 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,16 +7825,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P18" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.3657496970649</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>308.1251096272023</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>158.8724419039329</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>32.781406563524</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>230.7151863772038</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>306.114737013996</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>18.73797368291338</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>202.5230052237938</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>89.50535707182929</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.406389150901262</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.1712588742583</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>104.5522433657029</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.0514595033299</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>107.7081744260618</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>206.8617210942427</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>92.13695539594926</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120.3216101384053</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>157.2056534190054</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>123.5860431649658</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571479</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>65.89018860828304</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26326,34 +26326,34 @@
         <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
+        <v>234617.4358426251</v>
+      </c>
+      <c r="H2" t="n">
         <v>234617.4358426252</v>
       </c>
-      <c r="H2" t="n">
-        <v>234617.4358426251</v>
-      </c>
       <c r="I2" t="n">
-        <v>234617.435842625</v>
+        <v>234617.4358426253</v>
       </c>
       <c r="J2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="K2" t="n">
-        <v>244093.2824071617</v>
+        <v>244093.2824071619</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592851</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.5309592852</v>
       </c>
       <c r="O2" t="n">
         <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592852</v>
       </c>
     </row>
     <row r="3">
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086677</v>
+        <v>10342.90680086686</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26424,10 +26424,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687073</v>
@@ -26436,13 +26436,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106729</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,13 +26451,13 @@
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,13 +26491,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-592147.2941051935</v>
+        <v>-592147.2941051933</v>
       </c>
       <c r="C6" t="n">
-        <v>-2179.414890648972</v>
+        <v>-2179.414890648943</v>
       </c>
       <c r="D6" t="n">
         <v>-2179.414890648928</v>
       </c>
       <c r="E6" t="n">
-        <v>-404704.5341698581</v>
+        <v>-404801.9932958303</v>
       </c>
       <c r="F6" t="n">
-        <v>120455.5023070378</v>
+        <v>120358.0431810657</v>
       </c>
       <c r="G6" t="n">
-        <v>120455.5023070378</v>
+        <v>120358.0431810656</v>
       </c>
       <c r="H6" t="n">
-        <v>120455.5023070378</v>
+        <v>120358.0431810658</v>
       </c>
       <c r="I6" t="n">
-        <v>120455.5023070374</v>
+        <v>120358.0431810658</v>
       </c>
       <c r="J6" t="n">
-        <v>-55967.71688555488</v>
+        <v>-56065.1760115272</v>
       </c>
       <c r="K6" t="n">
-        <v>62963.23847302586</v>
+        <v>62944.74473509179</v>
       </c>
       <c r="L6" t="n">
-        <v>93661.12351020168</v>
+        <v>93661.12351020167</v>
       </c>
       <c r="M6" t="n">
-        <v>-30796.98492276871</v>
+        <v>-30796.98492276864</v>
       </c>
       <c r="N6" t="n">
-        <v>104004.0303110685</v>
+        <v>104004.0303110686</v>
       </c>
       <c r="O6" t="n">
         <v>104004.0303110685</v>
       </c>
       <c r="P6" t="n">
-        <v>59841.42500822274</v>
+        <v>59841.4250082229</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108346</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>27.09196498903827</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>233.3843537351756</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>26.42655497161957</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>110.8140341508466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.02264908530606</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>271.6428194658728</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>6.465431879389172</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>208.819789884688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>42.18039266841453</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>71.15838915665799</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>138.9222730026342</v>
+        <v>68.03062711747032</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,7 +35495,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>724.9245949685507</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35571,7 +35571,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799268</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>457.5346514843358</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P18" t="n">
-        <v>259.5907485445772</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>607.5603230950777</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>641.3196830252153</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>408.1301468599572</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>365.975979961537</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3724419700203</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>351.9325470809263</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>535.7175786218068</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
